--- a/back/fixtures/temp/sub_story.xlsx
+++ b/back/fixtures/temp/sub_story.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,166 @@
   </si>
   <si>
     <t>has_branch</t>
+  </si>
+  <si>
+    <t>story_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>house1.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossroad.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>changed_fox.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountain_fox.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbit_little.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fox_girl_baby.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>house1_baby_hand.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountain_fox_grandmother_baby.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cards.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>white.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby_rabbit.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nukkied_sick.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>white_baby.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>house1_baby6.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountain_baby.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree_day_baby3.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>party_norabbit_baby.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hole_baby.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>party.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>party_mouses.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby_rrecorder.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>river_bear.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>river_bear2.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>river.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountain.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree_night_baby.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>night.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree_night_baby_small.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree_night_baby_sit.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree_night_baby_guitar.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree_night_baby_recorder.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>audition2.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>audition_baby.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>audition2_baby.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>end1.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>end2.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>end3.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>end4.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>end5.jpg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -623,7 +783,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,15 +1120,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="31.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -969,10 +1144,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -980,423 +1161,794 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
       <c r="C8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
       <c r="C9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
       <c r="C11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
       <c r="C13">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
       <c r="C14">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
       <c r="C16">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C17">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C18">
         <v>18</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C19">
         <v>19</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
       <c r="C20">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
       <c r="C21">
         <v>21</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
       <c r="C22">
         <v>22</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
       <c r="C23">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
       <c r="C24">
         <v>24</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
       <c r="C25">
         <v>25</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
       <c r="C26">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
       <c r="C27">
         <v>27</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
       <c r="C28">
         <v>28</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
       <c r="C29">
         <v>29</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
       <c r="C30">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
       <c r="C31">
         <v>31</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
       <c r="C32">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
       <c r="C33">
         <v>33</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
       <c r="C34">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
       <c r="C35">
         <v>35</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
       <c r="C36">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
       <c r="C37">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>46</v>
+      </c>
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
       <c r="D41">
         <v>0</v>
       </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42">
+        <v>42</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43">
+        <v>47</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44">
+        <v>-1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>-1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47">
+        <v>-1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48">
+        <v>-1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
